--- a/test_cases/NewPetNeg.xlsx
+++ b/test_cases/NewPetNeg.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Pairwise" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="All Combinations" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -56,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,13 +93,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,24 +136,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,14 +345,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20:B37"/>
+      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,7 +368,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="0"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -385,7 +377,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -394,7 +386,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -403,7 +395,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="0"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -412,7 +404,7 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -421,7 +413,7 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="0"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -430,7 +422,7 @@
       <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
@@ -439,7 +431,7 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -448,187 +440,97 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="3" t="n">
         <v>21474836478</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="0"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="0"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>21474836478</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test_cases/NewPetNeg.xlsx
+++ b/test_cases/NewPetNeg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="17">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,25 +28,46 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">category_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cats</t>
   </si>
   <si>
     <t xml:space="preserve">tesT</t>
   </si>
   <si>
     <t xml:space="preserve">TesT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -345,20 +366,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,61 +393,166 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0"/>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
@@ -431,106 +561,1390 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>21474836478</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="0"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>21474836478</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="0"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="0"/>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="0"/>
+    </row>
+    <row r="29" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="0"/>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="0"/>
+    </row>
+    <row r="31" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0"/>
+    </row>
+    <row r="32" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0"/>
+    </row>
+    <row r="33" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="0"/>
+    </row>
+    <row r="34" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="0"/>
+    </row>
+    <row r="35" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="0"/>
+    </row>
+    <row r="36" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="0"/>
+    </row>
+    <row r="37" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="0"/>
+    </row>
+    <row r="38" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="0"/>
+    </row>
+    <row r="39" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="0"/>
+    </row>
+    <row r="40" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="0"/>
+    </row>
+    <row r="42" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="0"/>
+    </row>
+    <row r="43" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="0"/>
+    </row>
+    <row r="44" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="0"/>
+    </row>
+    <row r="45" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="0"/>
+    </row>
+    <row r="46" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="0"/>
+    </row>
+    <row r="47" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="0"/>
+    </row>
+    <row r="48" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="0"/>
+    </row>
+    <row r="49" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="0"/>
+    </row>
+    <row r="50" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="0"/>
+    </row>
+    <row r="51" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="0"/>
+    </row>
+    <row r="52" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="0"/>
+    </row>
+    <row r="53" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="0"/>
+    </row>
+    <row r="54" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="0"/>
+    </row>
+    <row r="55" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="0"/>
+    </row>
+    <row r="56" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="0"/>
+    </row>
+    <row r="57" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="0"/>
+    </row>
+    <row r="58" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="0"/>
+    </row>
+    <row r="59" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="0"/>
+    </row>
+    <row r="60" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="0"/>
+    </row>
+    <row r="61" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="0"/>
+    </row>
+    <row r="62" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="0"/>
+    </row>
+    <row r="63" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="0"/>
+    </row>
+    <row r="64" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="0"/>
+    </row>
+    <row r="65" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>21474836478</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
